--- a/_xlsx/can_data_all_model.xlsx
+++ b/_xlsx/can_data_all_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yhwork\can_test\_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD86DA-0033-43B9-90AC-D0385209B662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F36A44-9B41-474B-B882-C1CF21B4FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="309">
   <si>
     <t>车型</t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>6B7#00 06 00 00 00 19 00 A1</t>
   </si>
   <si>
-    <t>6B7#00 06 00 00 00 19 00 A1#总里程1536</t>
-  </si>
-  <si>
     <t>6B7#00 06 20 03 00 19 00 A1</t>
   </si>
   <si>
@@ -1121,6 +1118,18 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6B7#00 06 00 00 00 19 00 A1#总里程1536</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1677,10 +1686,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,7 +1708,7 @@
     <col min="12" max="12" width="13.5" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1723,7 @@
       <c r="J1" s="14"/>
       <c r="L1" s="29"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1738,7 @@
       <c r="J2" s="14"/>
       <c r="L2" s="29"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -1738,7 +1747,7 @@
       <c r="J3" s="14"/>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
@@ -1775,8 +1784,11 @@
       <c r="L4" s="38" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
@@ -1802,20 +1814,23 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
@@ -1836,15 +1851,18 @@
         <v>-1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>14</v>
       </c>
@@ -1856,7 +1874,7 @@
       <c r="J7" s="14"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>15</v>
       </c>
@@ -1868,12 +1886,12 @@
       <c r="J8" s="14"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>98</v>
@@ -1894,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J9" s="14"/>
       <c r="L9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D10" s="39">
         <v>8</v>
@@ -1927,22 +1945,25 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J10" s="14"/>
       <c r="L10" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="39">
         <v>8</v>
@@ -1960,14 +1981,14 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J11" s="14"/>
       <c r="L11" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>19</v>
       </c>
@@ -1979,7 +2000,7 @@
       <c r="J12" s="14"/>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>267</v>
       </c>
@@ -1991,7 +2012,7 @@
       <c r="J13" s="14"/>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>21</v>
       </c>
@@ -2003,7 +2024,7 @@
       <c r="J14" s="14"/>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>22</v>
       </c>
@@ -2015,7 +2036,7 @@
       <c r="J15" s="14"/>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>23</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="14"/>
       <c r="L20" s="10">
@@ -2248,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>85</v>
@@ -2269,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J28" s="14"/>
       <c r="L28" s="10">
@@ -2394,7 +2415,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>65</v>
@@ -2415,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J36" s="14"/>
       <c r="L36" s="10">
@@ -2427,10 +2448,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D37" s="39">
         <v>8</v>
@@ -2448,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J37" s="14"/>
       <c r="L37" s="10">
@@ -12382,9 +12403,9 @@
   </sheetPr>
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15552,11 +15573,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15575,7 +15596,7 @@
     <col min="12" max="12" width="13.5" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15593,7 +15614,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -15611,7 +15632,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
@@ -15625,7 +15646,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -15633,7 +15654,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
@@ -15657,13 +15678,16 @@
         <v>11</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
@@ -15696,8 +15720,11 @@
       <c r="L5" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -15714,9 +15741,8 @@
       <c r="F6" s="19">
         <v>16</v>
       </c>
-      <c r="G6" s="47">
-        <f>0.185</f>
-        <v>0.185</v>
+      <c r="G6" s="47" t="s">
+        <v>306</v>
       </c>
       <c r="H6" s="19">
         <v>0</v>
@@ -15729,8 +15755,11 @@
       <c r="L6" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
@@ -15746,7 +15775,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -15778,7 +15807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -15812,7 +15841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
@@ -15845,8 +15874,11 @@
       <c r="L10" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -15880,7 +15912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>231</v>
       </c>
@@ -15914,7 +15946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
@@ -15930,7 +15962,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
@@ -15964,7 +15996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
@@ -15998,7 +16030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
